--- a/data/attendance_Data Visualization_2025-02-11.xlsx
+++ b/data/attendance_Data Visualization_2025-02-11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -536,29 +536,79 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>92201703088</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ankit Sharma</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>6EC3</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Data Visualization</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>03:12:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>92201703088</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ankit Sharma</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>6EC3</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Data Visualization</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>03:17:28 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>92201703088</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>Ankit Sharma</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>6EC3</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Data Visualization</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>03:12:00 PM</t>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>03:25:56 PM</t>
         </is>
       </c>
     </row>
